--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -46,12 +46,12 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -61,22 +61,25 @@
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -88,43 +91,49 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>free</t>
   </si>
   <si>
     <t>safe</t>
@@ -133,37 +142,34 @@
     <t>better</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>join</t>
@@ -172,34 +178,31 @@
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>key</t>
   </si>
   <si>
     <t>hope</t>
@@ -208,34 +211,31 @@
     <t>share</t>
   </si>
   <si>
-    <t>make</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>home</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -599,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -818,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>0.9090909090909091</v>
@@ -918,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6551724137931034</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5263157894736842</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L9">
         <v>30</v>
       </c>
-      <c r="K9">
-        <v>0.875</v>
-      </c>
-      <c r="L9">
-        <v>98</v>
-      </c>
       <c r="M9">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4871794871794872</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -1036,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8536585365853658</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="M10">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3825503355704698</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C12">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8297872340425532</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3527131782945737</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C13">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>334</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.828125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3174603174603174</v>
+        <v>0.32</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2111111111111111</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1706349206349206</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7887323943661971</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L16">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1018766756032172</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,21 +1410,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.09115281501340483</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>339</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.7758620689655172</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>0.775</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L19">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.7647058823529411</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1488,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.7264150943396226</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1514,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.71875</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1540,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.7125</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L23">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1566,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.6944444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1592,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.6702127659574468</v>
+        <v>0.62</v>
       </c>
       <c r="L25">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1618,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.6458333333333334</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1644,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.6057441253263708</v>
+        <v>0.6005221932114883</v>
       </c>
       <c r="L27">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M27">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1670,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.5882352941176471</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1696,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.5813953488372093</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1722,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.5735294117647058</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L30">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1748,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.5600000000000001</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1774,12 +1798,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K32">
         <v>0.55</v>
@@ -1805,16 +1829,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.5168539325842697</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="M33">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1826,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.5152542372881356</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L34">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1852,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.5111111111111111</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1878,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.484375</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1904,15 +1928,15 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.475</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L37">
         <v>19</v>
@@ -1930,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.4520547945205479</v>
+        <v>0.4518828451882845</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1956,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.4518828451882845</v>
+        <v>0.4375</v>
       </c>
       <c r="L39">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1982,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>131</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.4230769230769231</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2008,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2034,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.3428571428571429</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2060,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.1272727272727273</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2086,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>144</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.1057692307692308</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L44">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M44">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2117,16 +2141,16 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.1028708133971292</v>
+        <v>0.09375</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M45">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2138,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K46">
-        <v>0.06823266219239374</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L46">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2164,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>833</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K47">
-        <v>0.0581039755351682</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2190,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>308</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K48">
-        <v>0.04661487236403995</v>
+        <v>0.04217536071032187</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2216,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K49">
-        <v>0.04</v>
+        <v>0.03460207612456748</v>
       </c>
       <c r="L49">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2242,137 +2266,111 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>624</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K50">
-        <v>0.0294392523364486</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L50">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2077</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K51">
-        <v>0.02883506343713956</v>
+        <v>0.02897196261682243</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>842</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K52">
-        <v>0.02169421487603306</v>
+        <v>0.01547887778136085</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>947</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K53">
-        <v>0.0128783000643915</v>
+        <v>0.006255864873318737</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K54">
-        <v>0.0059430716296528</v>
-      </c>
-      <c r="L54">
-        <v>19</v>
-      </c>
-      <c r="M54">
-        <v>23</v>
-      </c>
-      <c r="N54">
-        <v>0.83</v>
-      </c>
-      <c r="O54">
-        <v>0.17</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
   </sheetData>
